--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -653,68 +653,41 @@
         <v>SAP</v>
       </c>
       <c r="H5" t="str">
-        <v>Universitario titulado</v>
+        <v>Universitario sin titulo</v>
       </c>
       <c r="I5" t="str">
-        <v>Temporal</v>
+        <v>Permanente</v>
       </c>
       <c r="J5" t="str">
         <v>Tiempo completo</v>
       </c>
       <c r="K5" t="str">
-        <v>Desde casa</v>
+        <v>Híbrido</v>
       </c>
       <c r="L5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Acerca de la empresa
-'E-Software &amp; Business Solution, S. A. de C. V.' es una empresa líder en el desarrollo de soluciones tecnológicas para empresas en México. Valoramos la innovación, la creatividad y el trabajo en equipo, brindando un ambiente laboral dinámico y colaborativo. Ubicación: Monterrey, Nuevo León.
-Carreras Afines:
-Ingeniero o Licenciado en Sistemas Computacionales
-Ingeniero en Tecnologías Computacionales
-Otra Similar
-Perfil Búsqueda: Programador ABAP Sr.
-Cantidad Recursos: ( 2 ) Dos
-Idioma (s): español, inglés (técnico intermedio).
-Función Principal: Programación ABAP
-· Experiencia +5 años comprobable como desarrollador ABAP
-· Dominio técnico de desarrollos ABAP:
-- Utilización de herramientas del Workbench
-o Module Pool
-o BADI
-o BAPI
-o Idoc
-o Enahacement, Exits, Field Exit
-o Interfases RFC, ODATA
-o SAP Script
-o Smart Forms
-o Programación Orientada a Objetos
-- Deseable:
-o Nuevas Herramientas de Hana
-o Desarrollo en Eclipse
-o Vistas CDS
-o Métodos AMDP
-o New Open SQL
-Actividades Principales:
-· Atención a los requerimientos de programación enviados por los funcionales de los módulos de FI/MM/PM/QM
-· Desarrollo de nuevas aplicaciones utilizando el lenguaje ABAP de acuerdo con las especificaciones indicadas.
-· Dar mantenimiento a las aplicaciones actuales en producción para continuar con la operación diaria.
-· Aplicación de las nuevas herramientas de SAP Hana.
-Disponibilidad:
-Inmediata
-Lugar de Trabajo:
-Remoto
-Otras Capacidades Generales Esperadas
-· Actitud proactiva
-· Conocimiento de procesos de negocio
-· Probada capacidad de análisis y Síntesis
-· Sepa trabajar en equipo
-· Sepa trabajar bajo presión
-Ingles: solo escrito intermedio
-Prestaciones y beneficios adicionales
-Sueldo competitivo
-Contratación temporal a tiempo completo.
-Modalidad de trabajo remoto.
-Oportunidades de capacitación y desarrollo profesional.
-Ambiente laboral inclusivo y colaborativo.</v>
+        <v xml:space="preserve">¡Estamos en búsqueda de tu talento!
+Vacante: Desarrollador SAP ABAP / Nómina (PY)
+¿Te apasiona el desarrollo ABAP y tienes experiencia en procesos de nómina? Esta oportunidad es para ti. Queremos que te sumes a nuestro equipo de tecnología y participes en proyectos clave dentro de entornos SAP HCM/PY.
+¿Qué harás?
+Desarrollo y mantenimiento de programas ABAP enfocados en procesos de nómina (SAP PY).
+Creación y ajuste de reportes, SmartForms, SAPScripts y módulos de funciones.
+Desarrollo de interfaces entre SAP y sistemas externos.
+Atención y resolución de incidencias técnicas.
+Participación en proyectos de mejora y optimización.
+Documentación técnica y funcional.
+Trabajo colaborativo con consultores funcionales y equipos de nómina.
+Requisitos:
+Licenciatura o Ingeniería en Sistemas, Informática o afín.
+3+ años de experiencia como Desarrollador SAP ABAP.
+Conocimiento sólido en:
+SAP PY (Payroll).
+SAP HCM (deseable).
+Lenguaje ABAP (Reports, User Exits, BADI's, SmartForms, SAPScripts).
+Procesos de nómina (cálculo, incidencias, pagos, finiquitos).
+Deseable: experiencia en SuccessFactors o SAP Fiori.
+Proactividad y capacidad de trabajo en equipo.
+¿Te interesa?
+Postúlate por este medio o envíanos tu CV actualizado. ¡Queremos conocerte!</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
